--- a/data/trans_camb/BARTHEL_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Habitat-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,25</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-20,54</t>
+          <t>20,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-18,4</t>
+          <t>18,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-22,17</t>
+          <t>22,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-16,83</t>
+          <t>16,83</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-12,2</t>
+          <t>12,2</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-21,55</t>
+          <t>21,55</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-11,53</t>
+          <t>11,53</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 7,82</t>
+          <t>-7,72; 20,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-40,31; -3,14</t>
+          <t>3,3; 41,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 11,38</t>
+          <t>-9,84; 10,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,13; 0,31</t>
+          <t>-0,31; 40,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,01; -0,76</t>
+          <t>0,76; 50,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 2,15</t>
+          <t>-1,96; 28,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,02; 1,3</t>
+          <t>-0,25; 27,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,4; -7,1</t>
+          <t>7,91; 37,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,4; -1,79</t>
+          <t>0,4; 19,44</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,43%</t>
+          <t>102,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-21,43%</t>
+          <t>494,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,34%</t>
+          <t>54,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-20,06%</t>
+          <t>222,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-24,17%</t>
+          <t>267,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-18,35%</t>
+          <t>203,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-12,99%</t>
+          <t>198,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-22,96%</t>
+          <t>351,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-12,29%</t>
+          <t>188,02%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 8,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,84; -3,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 12,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,64; -0,17</t>
+          <t>-33,76; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,99; -1,09</t>
+          <t>-49,78; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,62; 1,47</t>
+          <t>-16,46; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 1,17</t>
+          <t>-21,52; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,45; -8,76</t>
+          <t>26,45; 1679,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,79; -2,11</t>
+          <t>-9,48; 971,6</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,35</t>
+          <t>13,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,9</t>
+          <t>10,9</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,66</t>
+          <t>14,66</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,25</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,4</t>
+          <t>9,4</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 12,31</t>
+          <t>-11,91; 4,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 8,67</t>
+          <t>-8,87; 9,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 5,78</t>
+          <t>-5,48; 10,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,68; -3,91</t>
+          <t>4,82; 23,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,28; -1,71</t>
+          <t>2,6; 20,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,8; -6,37</t>
+          <t>6,26; 21,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 1,12</t>
+          <t>-0,82; 11,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 0,34</t>
+          <t>-0,22; 12,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,88; -3,43</t>
+          <t>3,4; 14,55</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>-28,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,14%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,49%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-15,04%</t>
+          <t>118,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,28%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,51%</t>
+          <t>130,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,43%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,08%</t>
+          <t>53,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-10,65%</t>
+          <t>79,77%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 15,24</t>
+          <t>-68,62; 79,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 10,59</t>
+          <t>-49,43; 124,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 6,9</t>
+          <t>-30,44; 134,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,02; -4,89</t>
+          <t>26,43; 319,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,03; -2,0</t>
+          <t>13,28; 310,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,67; -7,85</t>
+          <t>32,4; 325,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 1,18</t>
+          <t>-7,34; 135,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 0,38</t>
+          <t>-2,31; 147,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,23; -4,07</t>
+          <t>22,15; 168,95</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-12,89</t>
+          <t>12,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,81</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-17,59</t>
+          <t>17,59</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,96</t>
+          <t>8,96</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-15,47</t>
+          <t>15,47</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,18</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-8,65</t>
+          <t>8,65</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,77; -5,09</t>
+          <t>5,41; 21,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 1,2</t>
+          <t>-2,02; 10,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,45; -1,01</t>
+          <t>1,46; 14,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,36; -8,68</t>
+          <t>7,95; 25,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 4,67</t>
+          <t>-5,09; 11,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,46; -1,61</t>
+          <t>1,4; 15,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,35; -9,6</t>
+          <t>9,41; 22,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 1,22</t>
+          <t>-1,3; 9,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,23; -3,86</t>
+          <t>3,55; 13,27</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-14,02%</t>
+          <t>160,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,14%</t>
+          <t>58,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,49%</t>
+          <t>97,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-20,67%</t>
+          <t>117,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,22%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-10,53%</t>
+          <t>60,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-17,55%</t>
+          <t>130,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-4,74%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-9,81%</t>
+          <t>72,9%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,19; -5,78</t>
+          <t>40,08; 409,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 1,4</t>
+          <t>-21,54; 210,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,28; -1,38</t>
+          <t>9,59; 275,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,57; -10,64</t>
+          <t>39,02; 237,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 5,82</t>
+          <t>-27,39; 103,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,44; -2,07</t>
+          <t>6,93; 138,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,72; -11,18</t>
+          <t>59,71; 247,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 1,42</t>
+          <t>-8,68; 106,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-14,64; -4,56</t>
+          <t>24,63; 153,91</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-11,08</t>
+          <t>11,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,25</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,01</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-16,75</t>
+          <t>16,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-13,92</t>
+          <t>13,92</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-14,44</t>
+          <t>14,44</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-10,84</t>
+          <t>10,84</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>4,29</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,25; -3,65</t>
+          <t>3,96; 21,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,18; -0,52</t>
+          <t>0,91; 14,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,76; -2,14</t>
+          <t>2,12; 14,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,03; -6,67</t>
+          <t>7,52; 26,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,35; -4,34</t>
+          <t>4,57; 23,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 12,32</t>
+          <t>-11,32; 11,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-20,72; -7,65</t>
+          <t>7,18; 21,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,38; -4,51</t>
+          <t>4,01; 17,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 4,2</t>
+          <t>-3,21; 10,51</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,49%</t>
+          <t>311,69%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-7,52%</t>
+          <t>203,99%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,31%</t>
+          <t>225,26%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-18,97%</t>
+          <t>143,15%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-15,76%</t>
+          <t>118,94%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-15,72%</t>
+          <t>176,91%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-11,81%</t>
+          <t>132,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-4,67%</t>
+          <t>52,56%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,83; -3,85</t>
+          <t>19,23; 1817,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,57; -0,57</t>
+          <t>-4,89; 1301,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,11; -2,28</t>
+          <t>18,22; 1181,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,93; -8,08</t>
+          <t>43,3; 338,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,52; -5,28</t>
+          <t>27,11; 294,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 15,0</t>
+          <t>-65,33; 122,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,57; -8,71</t>
+          <t>61,17; 376,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,74; -5,06</t>
+          <t>33,49; 317,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 4,74</t>
+          <t>-34,4; 160,56</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,69</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-6,89</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>5,18</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 1,2</t>
+          <t>-1,86; 13,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 5,93</t>
+          <t>-5,59; 6,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 3,9</t>
+          <t>-3,17; 8,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 3,03</t>
+          <t>-1,92; 11,48</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 2,49</t>
+          <t>-1,6; 13,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-12,98; -0,31</t>
+          <t>0,22; 13,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,26; -0,07</t>
+          <t>-0,1; 11,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 1,69</t>
+          <t>-1,95; 9,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,35; -0,36</t>
+          <t>0,78; 9,87</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-6,25%</t>
+          <t>63,74%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-3,39%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-5,5%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-6,94%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-8,14%</t>
+          <t>45,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-5,8%</t>
+          <t>39,66%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-4,06%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-5,93%</t>
+          <t>40,6%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 1,13</t>
+          <t>-18,98; 208,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 6,87</t>
+          <t>-48,52; 115,24</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 4,47</t>
+          <t>-25,99; 152,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 3,53</t>
+          <t>-10,39; 99,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 2,95</t>
+          <t>-9,96; 113,93</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-14,55; -0,42</t>
+          <t>1,37; 125,82</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-11,44; -0,11</t>
+          <t>-1,36; 114,85</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 1,99</t>
+          <t>-15,01; 95,2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-10,42; -0,45</t>
+          <t>4,14; 97,82</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-6,99</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-12,44</t>
+          <t>12,44</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-8,23</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-7,23</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-10,08</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-6,34</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-6,58</t>
+          <t>6,58</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,84; -3,09</t>
+          <t>3,11; 11,14</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,27; -0,53</t>
+          <t>0,64; 7,04</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,21; -2,02</t>
+          <t>2,11; 8,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-16,97; -8,12</t>
+          <t>7,96; 16,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,69; -3,89</t>
+          <t>4,29; 12,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,56; -0,77</t>
+          <t>0,6; 11,4</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-13,03; -7,09</t>
+          <t>7,1; 13,07</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -3,59</t>
+          <t>3,42; 9,06</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,29; -2,75</t>
+          <t>2,79; 9,14</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-7,59%</t>
+          <t>87,97%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-4,25%</t>
+          <t>49,28%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-5,79%</t>
+          <t>67,17%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-14,38%</t>
+          <t>92,46%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-9,51%</t>
+          <t>61,17%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-8,35%</t>
+          <t>53,71%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-11,34%</t>
+          <t>90,74%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>57,04%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-7,4%</t>
+          <t>59,19%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,82; -3,42</t>
+          <t>31,88; 169,6</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,81; -0,58</t>
+          <t>6,32; 113,29</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-8,77; -2,23</t>
+          <t>19,46; 132,42</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-19,18; -9,57</t>
+          <t>50,8; 147,07</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -4,81</t>
+          <t>27,17; 105,47</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -0,66</t>
+          <t>7,37; 97,09</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-14,43; -8,18</t>
+          <t>56,7; 135,44</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,21; -4,11</t>
+          <t>25,97; 90,75</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-10,32; -3,16</t>
+          <t>23,84; 91,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/BARTHEL_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 20,57</t>
+          <t>-8,24; 21,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 41,34</t>
+          <t>3,19; 40,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 10,12</t>
+          <t>-10,9; 10,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 40,13</t>
+          <t>-2,26; 41,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 50,01</t>
+          <t>0,78; 49,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 28,05</t>
+          <t>0,87; 28,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 27,23</t>
+          <t>-0,69; 25,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,91; 37,58</t>
+          <t>6,59; 35,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 19,44</t>
+          <t>0,73; 19,58</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,76; —</t>
+          <t>-61,01; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,78; —</t>
+          <t>-53,59; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,46; —</t>
+          <t>-14,52; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,52; —</t>
+          <t>-39,21; 1035,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,45; 1679,7</t>
+          <t>28,98; 1585,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 971,6</t>
+          <t>-11,37; 905,38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 4,64</t>
+          <t>-12,28; 4,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 9,09</t>
+          <t>-9,78; 8,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 10,58</t>
+          <t>-6,41; 11,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 23,55</t>
+          <t>4,18; 22,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 20,94</t>
+          <t>1,76; 19,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 21,73</t>
+          <t>7,11; 21,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 11,55</t>
+          <t>-0,93; 12,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 12,84</t>
+          <t>-0,38; 12,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 14,55</t>
+          <t>3,32; 14,92</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-68,62; 79,05</t>
+          <t>-68,31; 70,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,43; 124,97</t>
+          <t>-52,21; 110,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 134,15</t>
+          <t>-34,49; 140,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,43; 319,57</t>
+          <t>24,24; 317,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,28; 310,2</t>
+          <t>8,43; 263,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,4; 325,96</t>
+          <t>38,98; 309,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 135,52</t>
+          <t>-6,57; 148,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 147,85</t>
+          <t>-2,87; 138,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,15; 168,95</t>
+          <t>22,42; 180,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,41; 21,6</t>
+          <t>5,43; 21,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 10,97</t>
+          <t>-2,42; 11,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 14,12</t>
+          <t>1,83; 14,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,95; 25,86</t>
+          <t>8,03; 26,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 11,36</t>
+          <t>-4,53; 11,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 15,08</t>
+          <t>2,16; 15,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,41; 22,43</t>
+          <t>8,68; 21,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 9,55</t>
+          <t>-1,25; 9,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 13,27</t>
+          <t>4,01; 13,8</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40,08; 409,0</t>
+          <t>40,34; 446,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 210,13</t>
+          <t>-22,58; 225,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,59; 275,96</t>
+          <t>7,89; 302,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>39,02; 237,06</t>
+          <t>40,92; 238,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 103,56</t>
+          <t>-25,79; 110,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,93; 138,93</t>
+          <t>10,36; 149,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>59,71; 247,73</t>
+          <t>58,88; 229,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 106,51</t>
+          <t>-9,45; 104,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,63; 153,91</t>
+          <t>26,56; 161,71</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,96; 21,29</t>
+          <t>2,77; 21,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 14,05</t>
+          <t>1,25; 13,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 14,27</t>
+          <t>2,57; 14,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,52; 26,37</t>
+          <t>7,73; 27,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,57; 23,85</t>
+          <t>4,05; 24,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 11,89</t>
+          <t>-13,28; 11,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,18; 21,22</t>
+          <t>8,17; 21,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,01; 17,85</t>
+          <t>4,74; 17,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 10,51</t>
+          <t>-5,64; 10,23</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,23; 1817,62</t>
+          <t>19,6; 1494,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 1301,21</t>
+          <t>-7,63; 1037,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18,22; 1181,47</t>
+          <t>22,61; 1339,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>43,3; 338,15</t>
+          <t>36,53; 333,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,11; 294,6</t>
+          <t>25,87; 318,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-65,33; 122,76</t>
+          <t>-65,62; 114,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>61,17; 376,47</t>
+          <t>70,32; 388,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>33,49; 317,43</t>
+          <t>35,36; 303,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-34,4; 160,56</t>
+          <t>-40,89; 151,87</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 13,77</t>
+          <t>-0,89; 14,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 6,64</t>
+          <t>-5,11; 6,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 8,6</t>
+          <t>-3,67; 8,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 11,48</t>
+          <t>-2,7; 12,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 13,55</t>
+          <t>-1,17; 13,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,22; 13,51</t>
+          <t>0,22; 13,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 11,14</t>
+          <t>0,21; 10,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 9,22</t>
+          <t>-2,05; 8,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,78; 9,87</t>
+          <t>0,46; 9,25</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 208,1</t>
+          <t>-10,84; 245,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-48,52; 115,24</t>
+          <t>-43,07; 132,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,99; 152,17</t>
+          <t>-27,33; 149,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 99,4</t>
+          <t>-15,13; 108,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 113,93</t>
+          <t>-7,09; 119,63</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,37; 125,82</t>
+          <t>0,46; 119,22</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 114,85</t>
+          <t>-3,03; 103,34</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 95,2</t>
+          <t>-13,87; 81,69</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>4,14; 97,82</t>
+          <t>2,76; 94,01</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,11; 11,14</t>
+          <t>3,16; 11,53</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,64; 7,04</t>
+          <t>0,41; 7,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,11; 8,31</t>
+          <t>2,24; 8,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,96; 16,51</t>
+          <t>8,13; 16,56</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,29; 12,32</t>
+          <t>4,07; 12,51</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,6; 11,4</t>
+          <t>0,63; 11,3</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,1; 13,07</t>
+          <t>7,06; 13,29</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,42; 9,06</t>
+          <t>3,44; 9,26</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,14</t>
+          <t>2,12; 8,97</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>31,88; 169,6</t>
+          <t>31,49; 179,99</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>6,32; 113,29</t>
+          <t>2,41; 114,62</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>19,46; 132,42</t>
+          <t>23,51; 131,84</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>50,8; 147,07</t>
+          <t>49,28; 142,29</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>27,17; 105,47</t>
+          <t>24,13; 107,24</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>7,37; 97,09</t>
+          <t>8,08; 95,09</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>56,7; 135,44</t>
+          <t>56,56; 133,75</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>25,97; 90,75</t>
+          <t>26,63; 95,85</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>23,84; 91,6</t>
+          <t>19,39; 91,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/BARTHEL_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Barthel)</t>
+          <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 21,93</t>
+          <t>-7,82; 19,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 40,82</t>
+          <t>3,14; 40,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 10,1</t>
+          <t>-11,38; 10,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 41,23</t>
+          <t>-0,31; 40,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 49,42</t>
+          <t>0,76; 50,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 28,86</t>
+          <t>-2,15; 28,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 25,17</t>
+          <t>-1,3; 27,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,59; 35,47</t>
+          <t>7,1; 37,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 19,58</t>
+          <t>1,79; 19,4</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-61,01; —</t>
+          <t>-33,76; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,59; —</t>
+          <t>-49,78; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,52; —</t>
+          <t>-12,31; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,21; 1035,13</t>
+          <t>-42,38; 1314,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,98; 1585,47</t>
+          <t>18,41; 1746,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 905,38</t>
+          <t>2,14; 1036,26</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 4,55</t>
+          <t>-12,31; 4,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 8,46</t>
+          <t>-8,67; 8,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 11,46</t>
+          <t>-5,78; 11,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 22,65</t>
+          <t>3,91; 22,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 19,83</t>
+          <t>1,71; 20,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,11; 21,62</t>
+          <t>6,37; 21,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 12,23</t>
+          <t>-1,12; 12,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 12,27</t>
+          <t>-0,34; 12,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 14,92</t>
+          <t>3,43; 14,88</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-68,31; 70,06</t>
+          <t>-69,79; 67,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,21; 110,08</t>
+          <t>-52,76; 96,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-34,49; 140,12</t>
+          <t>-32,45; 162,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,24; 317,33</t>
+          <t>21,35; 326,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,43; 263,67</t>
+          <t>7,48; 283,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,98; 309,76</t>
+          <t>33,34; 316,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 148,55</t>
+          <t>-6,64; 147,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 138,68</t>
+          <t>-6,06; 138,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,42; 180,42</t>
+          <t>21,48; 178,54</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 21,54</t>
+          <t>5,09; 21,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 11,32</t>
+          <t>-1,2; 11,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 14,21</t>
+          <t>1,01; 14,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,03; 26,46</t>
+          <t>8,68; 26,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 11,93</t>
+          <t>-4,67; 11,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 15,81</t>
+          <t>1,61; 15,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,68; 21,49</t>
+          <t>9,6; 21,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 9,6</t>
+          <t>-1,22; 9,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,01; 13,8</t>
+          <t>3,86; 13,23</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40,34; 446,93</t>
+          <t>38,9; 400,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 225,35</t>
+          <t>-15,75; 235,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,89; 302,72</t>
+          <t>3,99; 307,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>40,92; 238,72</t>
+          <t>42,97; 241,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,79; 110,06</t>
+          <t>-24,5; 99,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,36; 149,42</t>
+          <t>7,49; 144,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>58,88; 229,16</t>
+          <t>60,31; 230,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 104,21</t>
+          <t>-8,8; 103,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,56; 161,71</t>
+          <t>23,68; 146,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,77; 21,37</t>
+          <t>3,65; 21,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,25; 13,68</t>
+          <t>0,52; 14,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 14,53</t>
+          <t>2,14; 13,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,73; 27,08</t>
+          <t>6,67; 26,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 24,17</t>
+          <t>4,34; 23,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 11,75</t>
+          <t>-12,32; 11,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,17; 21,77</t>
+          <t>7,65; 20,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,74; 17,31</t>
+          <t>4,51; 17,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 10,23</t>
+          <t>-4,2; 10,67</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,6; 1494,53</t>
+          <t>35,24; 1612,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 1037,86</t>
+          <t>-9,45; 1129,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,61; 1339,41</t>
+          <t>11,75; 1255,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36,53; 333,86</t>
+          <t>37,18; 347,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,87; 318,37</t>
+          <t>24,61; 301,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-65,62; 114,71</t>
+          <t>-69,16; 115,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>70,32; 388,22</t>
+          <t>68,17; 370,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>35,36; 303,2</t>
+          <t>39,01; 308,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,89; 151,87</t>
+          <t>-38,19; 171,7</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 14,98</t>
+          <t>-1,2; 13,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 6,9</t>
+          <t>-5,93; 6,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 8,39</t>
+          <t>-3,9; 8,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 12,08</t>
+          <t>-3,03; 11,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 13,67</t>
+          <t>-2,49; 13,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,22; 13,13</t>
+          <t>0,31; 12,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,21; 10,8</t>
+          <t>0,07; 10,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 8,34</t>
+          <t>-1,69; 9,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,46; 9,25</t>
+          <t>0,36; 9,35</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 245,3</t>
+          <t>-14,05; 219,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-43,07; 132,69</t>
+          <t>-49,52; 97,9</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,33; 149,09</t>
+          <t>-31,81; 150,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 108,89</t>
+          <t>-17,45; 96,27</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 119,63</t>
+          <t>-14,2; 111,93</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,46; 119,22</t>
+          <t>1,35; 118,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 103,34</t>
+          <t>-0,18; 101,98</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 81,69</t>
+          <t>-13,13; 87,98</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2,76; 94,01</t>
+          <t>2,18; 92,15</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,16; 11,53</t>
+          <t>3,09; 10,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,41; 7,41</t>
+          <t>0,53; 7,27</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,24; 8,33</t>
+          <t>2,02; 8,21</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>8,13; 16,56</t>
+          <t>8,12; 16,97</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,07; 12,51</t>
+          <t>3,89; 12,69</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,63; 11,3</t>
+          <t>0,77; 11,56</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,06; 13,29</t>
+          <t>7,09; 13,03</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,44; 9,26</t>
+          <t>3,59; 9,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,12; 8,97</t>
+          <t>2,75; 9,29</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>31,49; 179,99</t>
+          <t>30,64; 168,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2,41; 114,62</t>
+          <t>5,34; 115,88</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>23,51; 131,84</t>
+          <t>20,87; 136,4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>49,28; 142,29</t>
+          <t>50,61; 147,56</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>24,13; 107,24</t>
+          <t>24,13; 110,88</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>8,08; 95,09</t>
+          <t>6,95; 101,2</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>56,56; 133,75</t>
+          <t>56,37; 133,21</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>26,63; 95,85</t>
+          <t>29,49; 93,4</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>19,39; 91,25</t>
+          <t>23,34; 96,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/BARTHEL_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,54</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,4</t>
+          <t>-14,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,17</t>
+          <t>-12,51</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,83</t>
+          <t>-14,72</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,2</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,55</t>
+          <t>-8,74</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,53</t>
+          <t>-9,42</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 19,4</t>
+          <t>-4,78; 9,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 40,31</t>
+          <t>-12,01; 3,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 10,14</t>
+          <t>-8,96; 4,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 40,13</t>
+          <t>-23,02; -6,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 50,01</t>
+          <t>-21,19; -3,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 28,1</t>
+          <t>-21,06; -7,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 27,02</t>
+          <t>-12,95; -0,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 37,4</t>
+          <t>-14,42; -2,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 19,4</t>
+          <t>-14,15; -4,5</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>102,41%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>494,96%</t>
+          <t>-4,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>54,13%</t>
+          <t>-3,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>222,05%</t>
+          <t>-15,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>267,47%</t>
+          <t>-14,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>203,12%</t>
+          <t>-16,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>198,82%</t>
+          <t>-7,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>351,24%</t>
+          <t>-9,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>188,02%</t>
+          <t>-10,55%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,18; 11,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,04; 4,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,75; 5,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,76; —</t>
+          <t>-25,14; -7,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,78; —</t>
+          <t>-22,72; -4,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,31; —</t>
+          <t>-22,58; -9,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,38; 1314,37</t>
+          <t>-14,3; -1,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,41; 1746,24</t>
+          <t>-16,0; -3,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 1036,26</t>
+          <t>-15,61; -5,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-12,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>-7,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>-17,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,9</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,66</t>
+          <t>-8,94</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>-15,47</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>-8,51</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 4,62</t>
+          <t>-21,77; -5,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 8,13</t>
+          <t>-11,21; 1,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 11,62</t>
+          <t>-14,04; -0,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 22,68</t>
+          <t>-26,36; -8,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 20,28</t>
+          <t>-11,1; 4,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,37; 21,8</t>
+          <t>-15,49; -1,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 12,24</t>
+          <t>-21,35; -9,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 12,37</t>
+          <t>-9,52; 1,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 14,88</t>
+          <t>-13,13; -3,73</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-28,94%</t>
+          <t>-14,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>-5,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>-8,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>118,8%</t>
+          <t>-20,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>-4,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>130,41%</t>
+          <t>-10,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>48,15%</t>
+          <t>-17,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53,05%</t>
+          <t>-4,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>79,77%</t>
+          <t>-9,65%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-69,79; 67,38</t>
+          <t>-23,19; -5,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,76; 96,04</t>
+          <t>-11,84; 1,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,45; 162,51</t>
+          <t>-14,87; -1,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,35; 326,71</t>
+          <t>-29,57; -10,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,48; 283,86</t>
+          <t>-12,67; 5,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,34; 316,59</t>
+          <t>-17,22; -2,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 147,12</t>
+          <t>-23,72; -11,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 138,34</t>
+          <t>-10,56; 1,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,48; 178,54</t>
+          <t>-14,45; -4,4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,89</t>
+          <t>-11,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>-7,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>-7,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,59</t>
+          <t>-16,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>-13,92</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,96</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,47</t>
+          <t>-14,44</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>-10,84</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,65</t>
+          <t>-1,48</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,09; 21,77</t>
+          <t>-21,25; -3,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 11,21</t>
+          <t>-14,18; -0,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 14,45</t>
+          <t>-13,72; -2,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,68; 26,36</t>
+          <t>-26,03; -6,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 11,1</t>
+          <t>-23,35; -4,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 15,46</t>
+          <t>-10,74; 15,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,6; 21,35</t>
+          <t>-20,72; -7,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 9,52</t>
+          <t>-17,38; -4,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 13,23</t>
+          <t>-9,9; 7,09</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>160,31%</t>
+          <t>-11,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>58,81%</t>
+          <t>-7,52%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>-8,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>117,98%</t>
+          <t>-18,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>-15,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>60,07%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>130,41%</t>
+          <t>-15,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>35,24%</t>
+          <t>-11,81%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>72,9%</t>
+          <t>-1,61%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>38,9; 400,12</t>
+          <t>-21,83; -3,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 235,19</t>
+          <t>-14,57; -0,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,99; 307,44</t>
+          <t>-14,02; -2,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>42,97; 241,96</t>
+          <t>-28,93; -8,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 99,64</t>
+          <t>-25,52; -5,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,49; 144,87</t>
+          <t>-12,01; 18,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>60,31; 230,11</t>
+          <t>-22,57; -8,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 103,31</t>
+          <t>-18,74; -5,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,68; 146,64</t>
+          <t>-10,65; 8,02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,08</t>
+          <t>-5,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,75</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,92</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,44</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,84</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>-4,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 21,25</t>
+          <t>-13,16; 1,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 14,18</t>
+          <t>-6,02; 5,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 13,76</t>
+          <t>-8,23; 3,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,67; 26,03</t>
+          <t>-11,03; 3,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,34; 23,35</t>
+          <t>-13,93; 2,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 11,5</t>
+          <t>-12,1; 0,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,65; 20,72</t>
+          <t>-10,26; -0,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,51; 17,38</t>
+          <t>-9,11; 1,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 10,67</t>
+          <t>-8,66; 0,19</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>311,69%</t>
+          <t>-6,25%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>203,99%</t>
+          <t>-0,68%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>225,26%</t>
+          <t>-3,29%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>143,15%</t>
+          <t>-5,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>118,94%</t>
+          <t>-6,94%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>-7,36%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>176,91%</t>
+          <t>-5,8%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>132,86%</t>
+          <t>-4,06%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>52,56%</t>
+          <t>-5,33%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>35,24; 1612,89</t>
+          <t>-14,23; 1,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 1129,37</t>
+          <t>-6,45; 6,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,75; 1255,25</t>
+          <t>-8,73; 4,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>37,18; 347,24</t>
+          <t>-12,84; 3,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,61; 301,05</t>
+          <t>-15,88; 2,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-69,16; 115,29</t>
+          <t>-13,8; 0,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>68,17; 370,73</t>
+          <t>-11,44; -0,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>39,01; 308,18</t>
+          <t>-10,17; 1,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-38,19; 171,7</t>
+          <t>-9,65; 0,24</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>-6,99</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>-5,19</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>-12,44</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>-8,23</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,89</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>-10,08</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>-6,34</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>-5,19</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 13,16</t>
+          <t>-10,84; -3,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 6,02</t>
+          <t>-7,27; -0,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 8,3</t>
+          <t>-7,98; -1,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 11,03</t>
+          <t>-16,97; -8,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 13,93</t>
+          <t>-12,69; -3,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 12,98</t>
+          <t>-10,82; 4,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,07; 10,26</t>
+          <t>-13,03; -7,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 9,11</t>
+          <t>-9,18; -3,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,36; 9,35</t>
+          <t>-8,45; 0,17</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>63,74%</t>
+          <t>-7,59%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>-4,25%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>-5,63%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>-14,38%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
+          <t>-9,51%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>45,15%</t>
+          <t>-5,59%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>-11,34%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>-7,13%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>-5,84%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 219,97</t>
+          <t>-11,82; -3,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-49,52; 97,9</t>
+          <t>-7,81; -0,58</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-31,81; 150,62</t>
+          <t>-8,57; -2,06</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 96,27</t>
+          <t>-19,18; -9,57</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 111,93</t>
+          <t>-14,47; -4,81</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,35; 118,3</t>
+          <t>-12,35; 5,43</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 101,98</t>
+          <t>-14,43; -8,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 87,98</t>
+          <t>-10,21; -4,11</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2,18; 92,15</t>
+          <t>-9,41; 0,22</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>6,99</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>3,91</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>5,33</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>12,44</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>8,23</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>7,23</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>10,08</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>6,34</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>6,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>3,09; 10,84</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 7,27</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>2,02; 8,21</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>8,12; 16,97</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>3,89; 12,69</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 11,56</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>7,09; 13,03</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>3,59; 9,18</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 9,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>87,97%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>49,28%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>67,17%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>92,46%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>61,17%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>53,71%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>90,74%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>57,04%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>59,19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>30,64; 168,44</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>5,34; 115,88</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>20,87; 136,4</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>50,61; 147,56</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>24,13; 110,88</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>6,95; 101,2</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>56,37; 133,21</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>29,49; 93,4</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>23,34; 96,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/BARTHEL_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 9,6</t>
+          <t>-4,74; 9,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 3,64</t>
+          <t>-11,32; 5,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 4,46</t>
+          <t>-9,42; 4,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,02; -6,6</t>
+          <t>-21,7; -4,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,19; -3,8</t>
+          <t>-22,35; -4,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,06; -7,68</t>
+          <t>-21,28; -7,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,95; -0,77</t>
+          <t>-12,24; -0,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,42; -2,99</t>
+          <t>-14,48; -2,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,15; -4,5</t>
+          <t>-14,11; -4,27</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 11,24</t>
+          <t>-5,1; 11,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 4,15</t>
+          <t>-12,31; 5,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 5,28</t>
+          <t>-10,1; 5,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,14; -7,86</t>
+          <t>-24,4; -5,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,72; -4,35</t>
+          <t>-23,63; -4,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,58; -9,16</t>
+          <t>-23,34; -8,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,3; -1,03</t>
+          <t>-13,44; -1,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,0; -3,47</t>
+          <t>-15,93; -2,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-15,61; -5,31</t>
+          <t>-15,28; -4,97</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,77; -5,09</t>
+          <t>-21,19; -4,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 1,2</t>
+          <t>-11,26; 1,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,04; -0,83</t>
+          <t>-13,45; -1,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,36; -8,68</t>
+          <t>-25,73; -8,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 4,67</t>
+          <t>-11,63; 4,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,49; -1,66</t>
+          <t>-15,25; -1,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-21,35; -9,6</t>
+          <t>-22,07; -9,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 1,22</t>
+          <t>-9,57; 1,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,13; -3,73</t>
+          <t>-13,09; -3,22</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,19; -5,78</t>
+          <t>-22,83; -5,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 1,4</t>
+          <t>-12,08; 1,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,87; -1,07</t>
+          <t>-14,32; -1,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,57; -10,64</t>
+          <t>-28,91; -10,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 5,82</t>
+          <t>-13,2; 5,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,22; -2,01</t>
+          <t>-17,27; -1,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,72; -11,18</t>
+          <t>-24,52; -11,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 1,42</t>
+          <t>-10,56; 1,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,45; -4,4</t>
+          <t>-14,43; -3,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,25; -3,65</t>
+          <t>-21,32; -2,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,18; -0,52</t>
+          <t>-14,07; -0,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,72; -2,05</t>
+          <t>-13,69; -1,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,03; -6,67</t>
+          <t>-26,87; -7,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,35; -4,34</t>
+          <t>-23,96; -4,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 15,01</t>
+          <t>-10,44; 14,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,72; -7,65</t>
+          <t>-21,67; -7,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,38; -4,51</t>
+          <t>-16,96; -4,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 7,09</t>
+          <t>-9,81; 7,89</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,83; -3,85</t>
+          <t>-22,02; -2,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,57; -0,57</t>
+          <t>-14,45; -0,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,02; -2,18</t>
+          <t>-14,16; -2,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,93; -8,08</t>
+          <t>-30,38; -8,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,52; -5,28</t>
+          <t>-26,5; -5,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 18,45</t>
+          <t>-11,67; 18,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,57; -8,71</t>
+          <t>-23,37; -8,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,74; -5,06</t>
+          <t>-18,08; -5,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 8,02</t>
+          <t>-10,64; 9,02</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 1,2</t>
+          <t>-14,0; 1,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 5,93</t>
+          <t>-6,61; 5,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 3,97</t>
+          <t>-8,84; 2,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 3,03</t>
+          <t>-11,76; 2,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 2,49</t>
+          <t>-12,97; 1,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 0,36</t>
+          <t>-12,39; 0,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,26; -0,07</t>
+          <t>-10,39; 0,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 1,69</t>
+          <t>-8,62; 1,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 0,19</t>
+          <t>-9,24; -0,58</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 1,13</t>
+          <t>-15,02; 1,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 6,87</t>
+          <t>-7,1; 6,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 4,61</t>
+          <t>-9,32; 3,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 3,53</t>
+          <t>-13,25; 2,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 2,95</t>
+          <t>-14,91; 2,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 0,36</t>
+          <t>-13,99; 0,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,44; -0,11</t>
+          <t>-11,58; 0,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 1,99</t>
+          <t>-9,69; 1,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 0,24</t>
+          <t>-10,25; -0,69</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,84; -3,09</t>
+          <t>-10,81; -2,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,27; -0,53</t>
+          <t>-7,29; -0,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,98; -1,8</t>
+          <t>-8,36; -2,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-16,97; -8,12</t>
+          <t>-16,79; -7,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,69; -3,89</t>
+          <t>-12,24; -3,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 4,6</t>
+          <t>-10,72; 4,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-13,03; -7,09</t>
+          <t>-12,97; -7,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -3,59</t>
+          <t>-9,17; -3,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 0,17</t>
+          <t>-8,37; 0,46</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,82; -3,42</t>
+          <t>-11,75; -3,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,81; -0,58</t>
+          <t>-7,78; -0,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -2,06</t>
+          <t>-8,89; -2,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-19,18; -9,57</t>
+          <t>-19,08; -9,59</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -4,81</t>
+          <t>-13,84; -4,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 5,43</t>
+          <t>-12,29; 5,53</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-14,43; -8,18</t>
+          <t>-14,43; -8,1</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,21; -4,11</t>
+          <t>-10,31; -3,86</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 0,22</t>
+          <t>-9,32; 0,81</t>
         </is>
       </c>
     </row>
